--- a/otmm_decimal/result_colab/result_novelty_1000_1.0_15_102_ColabPP/b_1000_1.0_15_102.xlsx
+++ b/otmm_decimal/result_colab/result_novelty_1000_1.0_15_102_ColabPP/b_1000_1.0_15_102.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\result_colab\result_novelty_1000_1.0_15_102_ColabPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8D1925-711C-492A-85FD-5074DBA5217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141CE749-1EBC-4230-9C5D-41FDB7813C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22560" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b_1000_1.0_15_102" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
   <si>
     <t>6dGul(a1-6)</t>
   </si>
@@ -371,11 +381,15 @@
     <t>Man(a1-6)</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>Gal(b1-4)</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,8 +976,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,11 +1343,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CY33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL12" workbookViewId="0">
-      <selection activeCell="BT19" sqref="BT19"/>
+    <sheetView tabSelected="1" topLeftCell="K12" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6382,7 +6399,7 @@
         <v>23</v>
       </c>
       <c r="Z18" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="AA18" t="s">
         <v>25</v>
@@ -9194,7 +9211,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="1">
         <f t="shared" si="5"/>
         <v>5.0717275369118698E-3</v>
       </c>
